--- a/数据整理/stocks/A股/深证主板/002262-恩华药业.xlsx
+++ b/数据整理/stocks/A股/深证主板/002262-恩华药业.xlsx
@@ -451,435 +451,583 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>009984</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华启航两年封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>16.54</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>78.21</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0999</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009023</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华稳健回报混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5589</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>160613</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华盛世创新混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2571</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008134</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华优选价值股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>95.39</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2110</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009188</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华股息精选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>95.63</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.54</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1681</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>007385</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>华泰保兴安盈三个月定期开放混合</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>27.22</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1.52</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0806</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009124</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华泰保兴科荣混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>26.90</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0764</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005522</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华泰保兴吉年福定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>47.97</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0510</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>501032</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>财通福盛多策略混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.07</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0408</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>008082</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>国寿安保研究精选混合A</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>91.26</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>4.80</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004194</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>招商中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>004195</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>招商中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>008083</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>国寿安保研究精选混合C</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>91.26</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>4.80</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>009023</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>鹏华稳健回报混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>93.69</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>8.03</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>009188</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>鹏华股息精选混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>95.63</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>7.54</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>501032</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>财通福盛多策略混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>91.07</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>3.09</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>160613</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>鹏华盛世创新混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>94.34</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>6.15</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>009984</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>鹏华启航两年封闭运作混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>78.21</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>6.65</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>009124</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>华泰保兴科荣混合A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009125</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华泰保兴科荣混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>26.90</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1.45</t>
         </is>
       </c>
-      <c r="F10" t="n">
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>009125</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>华泰保兴科荣混合C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>26.90</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>1.45</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>008134</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>鹏华优选价值股票</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>95.39</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>7.01</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>004194</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>招商中证1000指数增强A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>94.63</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>0.92</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>004195</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>招商中证1000指数增强C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>94.63</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>0.92</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>005522</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>华泰保兴吉年福定期开放灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>47.97</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>1.84</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>8</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -889,7 +1037,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -910,15 +1058,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -930,26 +1088,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004010</t>
+          <t>009984</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华泰柏瑞鼎利灵活配置混合A</t>
+          <t>鹏华启航两年封闭运作混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>22.94</t>
+          <t>16.53</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.78</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>4</v>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7918</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -958,26 +1126,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004011</t>
+          <t>009023</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华泰柏瑞鼎利灵活配置混合C</t>
+          <t>鹏华稳健回报混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>22.94</t>
+          <t>4.25</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1.78</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>4</v>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1645</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -986,26 +1164,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>004475</t>
+          <t>163823</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华泰柏瑞富利灵活配置混合</t>
+          <t>中银稳健策略灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>69.19</t>
+          <t>7.71</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.25</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>7</v>
+          <t>31.46</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1457</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -1014,26 +1202,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>008037</t>
+          <t>160613</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>兴银先锋成长混合A</t>
+          <t>鹏华盛世创新混合(LOF)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>79.13</t>
+          <t>3.42</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2.49</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>8</v>
+          <t>92.01</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1361</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -1042,26 +1240,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>008038</t>
+          <t>004010</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>兴银先锋成长混合C</t>
+          <t>华泰柏瑞鼎利灵活配置混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>79.13</t>
+          <t>5.45</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2.49</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>8</v>
+          <t>22.94</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0970</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -1070,26 +1278,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>009984</t>
+          <t>001247</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>鹏华启航两年封闭运作混合</t>
+          <t>华泰柏瑞新利灵活配置混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>94.26</t>
+          <t>5.28</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>4.79</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>7</v>
+          <t>23.71</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0966</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -1098,26 +1316,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>501032</t>
+          <t>006952</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>财通福盛多策略混合（LOF）</t>
+          <t>中银景元回报混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>87.85</t>
+          <t>4.60</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>3.35</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>10</v>
+          <t>28.84</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0626</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -1126,25 +1354,35 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>006952</t>
+          <t>009188</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>中银景元回报混合</t>
+          <t>鹏华股息精选混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>28.84</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1.36</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
+          <t>95.13</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0542</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1154,26 +1392,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>001247</t>
+          <t>004900</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>华泰柏瑞新利灵活配置混合A</t>
+          <t>财通资管鑫锐回报混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>23.71</t>
+          <t>2.12</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1.83</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>4</v>
+          <t>33.38</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0363</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -1192,15 +1440,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>23.71</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1.83</t>
         </is>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0256</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1210,26 +1468,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>001474</t>
+          <t>005522</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>兴银丰盈灵活配置混合</t>
+          <t>华泰保兴吉年福定期开放灵活配置混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>87.16</t>
+          <t>3.31</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>9</v>
+          <t>23.39</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0235</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="13">
@@ -1238,26 +1506,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>160613</t>
+          <t>501032</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>鹏华盛世创新混合(LOF)</t>
+          <t>财通福盛多策略混合（LOF）</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>92.01</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>3.98</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>6</v>
+          <t>87.85</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0231</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="14">
@@ -1266,26 +1544,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>005522</t>
+          <t>004475</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>华泰保兴吉年福定期开放灵活配置混合</t>
+          <t>华泰柏瑞富利灵活配置混合</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>23.39</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0.71</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>10</v>
+          <t>69.19</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="15">
@@ -1294,26 +1582,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>009023</t>
+          <t>008037</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>鹏华稳健回报混合</t>
+          <t>兴银先锋成长混合A</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>94.12</t>
+          <t>0.79</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>3.87</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>9</v>
+          <t>79.13</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="16">
@@ -1322,26 +1620,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>003175</t>
+          <t>004901</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>华泰柏瑞多策略灵活配置混合</t>
+          <t>财通资管鑫锐回报混合C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>70.77</t>
+          <t>1.10</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>3.37</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>7</v>
+          <t>33.38</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="17">
@@ -1350,26 +1658,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>004900</t>
+          <t>004011</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>财通资管鑫锐回报混合A</t>
+          <t>华泰柏瑞鼎利灵活配置混合C</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>33.38</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>1.71</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>8</v>
+          <t>22.94</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="18">
@@ -1378,25 +1696,35 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>004901</t>
+          <t>008038</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>财通资管鑫锐回报混合C</t>
+          <t>兴银先锋成长混合C</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>33.38</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>1.71</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
+          <t>79.13</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1406,26 +1734,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>163823</t>
+          <t>001474</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>中银稳健策略灵活配置混合</t>
+          <t>兴银丰盈灵活配置混合</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>31.46</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>1.89</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>3</v>
+          <t>87.16</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="20">
@@ -1434,26 +1772,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>009188</t>
+          <t>003175</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>鹏华股息精选混合</t>
+          <t>华泰柏瑞多策略灵活配置混合</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>95.13</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>5.16</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>9</v>
+          <t>70.77</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/002262-恩华药业.xlsx
+++ b/数据整理/stocks/A股/深证主板/002262-恩华药业.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1807,4 +1808,250 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009984</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华启航两年封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>16.86</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8194</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009023</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华稳健回报混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>95.91</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1517</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>160613</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华盛世创新混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1412</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010746</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富安达长三角区域主题混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0947</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009188</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华股息精选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>97.15</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0352</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002262-恩华药业.xlsx
+++ b/数据整理/stocks/A股/深证主板/002262-恩华药业.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2054,4 +2055,250 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005535</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泰信竞争优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.32</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3463</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>290006</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泰信蓝筹精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2128</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010746</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富安达长三角区域主题混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0864</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001739</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中融融安二号灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>77.66</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0767</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004549</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富安达消费主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.85</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002262-恩华药业.xlsx
+++ b/数据整理/stocks/A股/深证主板/002262-恩华药业.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2301,4 +2302,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>19</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>14</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.58</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002262-恩华药业.xlsx
+++ b/数据整理/stocks/A股/深证主板/002262-恩华药业.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2310,7 +2311,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2321,17 +2322,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2341,14 +2362,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.74</v>
+          <t>005535</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泰信竞争优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.39</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5324</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -2357,14 +2400,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>5</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.24</v>
+          <t>290006</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泰信蓝筹精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.24</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4627</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -2373,14 +2438,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>19</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.75</v>
+          <t>010746</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富安达长三角区域主题混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.43</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0966</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -2389,13 +2476,265 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>001739</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中融融安二号灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>72.45</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0861</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002938</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中银证券健康产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.81</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0370</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519007</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>海富通强化回报混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>39.89</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0298</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004549</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富安达消费主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.36</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>19</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>14</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>2.58</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002262-恩华药业.xlsx
+++ b/数据整理/stocks/A股/深证主板/002262-恩华药业.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2633,7 +2634,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2644,17 +2645,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2664,14 +2685,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.26</v>
+          <t>010746</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富安达长三角区域主题混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0676</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -2680,14 +2723,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>5</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.74</v>
+          <t>009789</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富安达科技创新混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -2696,14 +2761,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>5</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.24</v>
+          <t>004549</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富安达消费主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -2712,14 +2799,136 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>005443</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国金量化多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>64.10</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>1.75</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="6">
@@ -2728,13 +2937,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>19</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>14</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>2.58</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002262-恩华药业.xlsx
+++ b/数据整理/stocks/A股/深证主板/002262-恩华药业.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2842,7 +2843,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2853,17 +2854,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2873,14 +2894,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.11</v>
+          <t>005117</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>金信价值精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.88</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0265</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -2889,14 +2932,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>7</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.26</v>
+          <t>004549</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富安达消费主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -2905,14 +2970,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>5</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.74</v>
+          <t>014328</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>格林新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>64.20</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -2921,14 +3008,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>5</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.24</v>
+          <t>005118</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>金信价值精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.88</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -2937,14 +3046,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>19</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1.75</v>
+          <t>006143</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>恒生前海中证质量成长低波动指数A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -2953,13 +3084,221 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>014327</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>格林新兴产业混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>64.20</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006144</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>恒生前海中证质量成长低波动指数C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>19</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>14</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>2.58</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002262-恩华药业.xlsx
+++ b/数据整理/stocks/A股/深证主板/002262-恩华药业.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D2" t="n">
-        <v>0.05</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D3" t="n">
-        <v>0.11</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>1.26</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D5" t="n">
-        <v>0.74</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>1.24</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>1.75</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>19</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>14</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>2.58</v>
       </c>
     </row>
@@ -600,6 +617,706 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>014412</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商核心竞争力混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>22.94</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>77.45</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6882</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>217005</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>招商先锋混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.85</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>74.73</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2575</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>014413</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>招商核心竞争力混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>77.45</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1221</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011977</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>格林研究优选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.69</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1094</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008075</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>招商核心优选股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.99</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1065</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>160613</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华盛世创新混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.08</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0797</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010746</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富安达长三角区域主题混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.86</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0536</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005117</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>金信价值精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.60</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0238</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011978</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>格林研究优选混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.69</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008076</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>招商核心优选股票C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.99</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006231</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国融融君灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>55.44</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005118</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>金信价值精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>87.60</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006143</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>恒生前海中证质量成长低波动指数A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>014328</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>格林新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>64.92</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>014327</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>格林新兴产业混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>64.92</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006144</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>恒生前海中证质量成长低波动指数C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>006232</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>国融融君灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>55.44</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -921,7 +1638,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1129,7 +1846,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1444,252 +2161,6 @@
       </c>
       <c r="H8" t="n">
         <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>005535</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>泰信竞争优选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>4.94</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>91.32</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>7.01</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.3463</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>290006</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>泰信蓝筹精选混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>3.04</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.60</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>7.00</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.2128</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>010746</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>富安达长三角区域主题混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1.45</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>90.83</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5.96</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0864</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>001739</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>中融融安二号灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1.74</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>77.66</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.41</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0767</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>004549</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>富安达消费主题灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.31</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>90.85</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.46</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0138</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1754,36 +2225,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009984</t>
+          <t>005535</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>鹏华启航两年封闭运作混合</t>
+          <t>泰信竞争优选灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>16.86</t>
+          <t>4.94</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.41</t>
+          <t>91.32</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.86</t>
+          <t>7.01</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.8194</t>
+          <t>0.3463</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -1792,36 +2263,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009023</t>
+          <t>290006</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>鹏华稳健回报混合</t>
+          <t>泰信蓝筹精选混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.48</t>
+          <t>3.04</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>95.91</t>
+          <t>93.60</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.36</t>
+          <t>7.00</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1517</t>
+          <t>0.2128</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -1830,36 +2301,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>160613</t>
+          <t>010746</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>鹏华盛世创新混合(LOF)</t>
+          <t>富安达长三角区域主题混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4.01</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>92.43</t>
+          <t>90.83</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.52</t>
+          <t>5.96</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1412</t>
+          <t>0.0864</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -1868,36 +2339,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>010746</t>
+          <t>001739</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>富安达长三角区域主题混合</t>
+          <t>中融融安二号灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.86</t>
+          <t>1.74</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.51</t>
+          <t>77.66</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.09</t>
+          <t>4.41</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0947</t>
+          <t>0.0767</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -1906,36 +2377,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>009188</t>
+          <t>004549</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>鹏华股息精选混合</t>
+          <t>富安达消费主题灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.84</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>97.15</t>
+          <t>90.85</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.19</t>
+          <t>4.46</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0352</t>
+          <t>0.0138</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1944,6 +2415,252 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009984</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华启航两年封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>16.86</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8194</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009023</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华稳健回报混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>95.91</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1517</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>160613</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华盛世创新混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1412</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010746</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富安达长三角区域主题混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0947</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009188</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华股息精选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>97.15</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0352</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2721,7 +3438,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/002262-恩华药业.xlsx
+++ b/数据整理/stocks/A股/深证主板/002262-恩华药业.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>17</v>
+        <v>68</v>
       </c>
       <c r="D2" t="n">
-        <v>1.47</v>
+        <v>12.67</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D3" t="n">
-        <v>0.05</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>0.11</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>1.26</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D6" t="n">
-        <v>0.74</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>1.24</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
-        <v>1.75</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,616 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>19</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>14</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>2.58</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009984</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华启航两年封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>16.54</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>78.21</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0999</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009023</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华稳健回报混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5589</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>160613</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华盛世创新混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2571</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008134</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华优选价值股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>95.39</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2110</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009188</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华股息精选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>95.63</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.54</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1681</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007385</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华泰保兴安盈三个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>27.22</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0806</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009124</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华泰保兴科荣混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>26.90</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0764</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005522</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华泰保兴吉年福定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>47.97</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0510</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>501032</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>财通福盛多策略混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.07</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0408</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008082</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国寿安保研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004194</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>招商中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>004195</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>招商中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008083</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国寿安保研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009125</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华泰保兴科荣混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>26.90</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +1220,2634 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H69"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>900090</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中信卓越成长两年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>56.19</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.5340</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>015122</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富医疗服务灵活配置混合D</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>30.29</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.53</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1783</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001417</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富医疗服务灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>30.26</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.53</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.1771</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005739</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国转型机遇混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>41.02</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.55</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.1280</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>015115</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇添富中国高端制造股票D</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>24.70</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>84.04</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.9584</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001725</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇添富中国高端制造股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>23.35</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>84.04</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.9060</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>260116</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>景顺长城核心竞争力混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>26.19</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>85.33</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.8171</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>100056</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国低碳环保混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>19.07</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.63</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5568</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>900010</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中信卓越成长两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>16.47</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4496</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>217005</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>招商先锋混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>8.79</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>72.35</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3454</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000308</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>建信创新中国混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>12.31</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>86.95</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3188</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010861</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>长信企业优选一年持有期灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>8.13</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>83.16</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3073</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007639</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>汇添富竞争优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>67.71</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2825</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>000418</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>景顺长城成长之星</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>9.75</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>82.78</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2759</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001070</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>建信信息产业股票A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>8.54</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2579</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>014611</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>富国核心科技12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>81.00</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2573</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011977</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>格林研究优选混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>86.76</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>8.20</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1722</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>160613</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>鹏华盛世创新混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1438</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011669</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>长信优质企业混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>89.13</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1431</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>008075</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>招商核心优选股票A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>89.98</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1424</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>900100</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中信卓越成长两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1354</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>008134</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>鹏华优选价值股票</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1192</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>012640</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>鹏华稳健鸿利一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1169</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>008924</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>建信医疗健康行业股票C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>85.96</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0975</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>002746</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>汇添富多策略定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>68.73</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0860</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>013630</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>嘉实均衡臻选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>81.00</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0828</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>005589</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>长信企业精选两年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>87.64</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0762</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>501063</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>汇添富悦享定期开放混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>69.94</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0735</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>011383</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>富安达医药创新混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>89.59</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0654</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010746</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>富安达长三角区域主题混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.88</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0572</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>004549</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>富安达消费主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0562</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>008923</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>建信医疗健康行业股票A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>85.96</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0429</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>015731</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>景顺长城核心竞争力混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>85.33</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0315</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>162212</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>泰达宏利红利先锋混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0301</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>011670</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>长信优质企业混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>89.13</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0262</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>014612</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>富国核心科技12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>81.00</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0241</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>003513</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>中邮消费升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>90.06</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0219</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>001861</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>富安达健康人生灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>91.87</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0208</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>007518</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>东方阿尔法优选混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>011978</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>格林研究优选混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>86.76</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>8.20</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>580005</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>东吴进取策略混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>78.84</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0191</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>008076</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>招商核心优选股票C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>89.98</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>010503</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>招商稳兴混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>28.39</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>006890</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>上投摩根领先优选混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>81.41</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>000679</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>招商丰利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>84.08</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>960008</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>景顺长城核心竞争力混合H</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>85.33</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>007519</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>东方阿尔法优选混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>012641</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>鹏华稳健鸿利一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>005536</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>渤海汇金量化成长混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>86.00</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>010584</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>渤海汇金新动能主题混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>006231</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>国融融君灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>59.86</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>850007</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>海通智选一年持有期股票B</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>82.33</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>014328</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>格林新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>81.22</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>013584</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>招商品质领航混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>62.41</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>850788</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>海通智选一年持有期股票A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>82.33</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>015121</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>汇添富医疗服务灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>89.53</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>015114</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>汇添富中国高端制造股票C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>84.04</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>002416</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>招商丰利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>84.08</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>013583</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>招商品质领航混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>62.41</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>014327</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>格林新兴产业混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>81.22</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>014863</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>建信信息产业股票C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>006232</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>国融融君灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>59.86</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>010504</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>招商稳兴混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>28.39</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G64" t="n">
+        <v>0</v>
+      </c>
+      <c r="H64" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>015619</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>泰达宏利红利先锋混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G65" t="n">
+        <v>0</v>
+      </c>
+      <c r="H65" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>011242</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>东吴进取策略混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>78.84</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G66" t="n">
+        <v>0</v>
+      </c>
+      <c r="H66" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>014470</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>富安达健康人生灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>91.87</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G67" t="n">
+        <v>0</v>
+      </c>
+      <c r="H67" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>017098</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>上投摩根领先优选混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>81.41</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G68" t="n">
+        <v>0</v>
+      </c>
+      <c r="H68" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>850799</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>海通智选一年持有期股票C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>82.33</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G69" t="n">
+        <v>0</v>
+      </c>
+      <c r="H69" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1316,7 +4547,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1638,7 +4869,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1846,7 +5077,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2161,252 +5392,6 @@
       </c>
       <c r="H8" t="n">
         <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>005535</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>泰信竞争优选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>4.94</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>91.32</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>7.01</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.3463</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>290006</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>泰信蓝筹精选混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>3.04</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.60</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>7.00</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.2128</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>010746</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>富安达长三角区域主题混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1.45</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>90.83</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5.96</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0864</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>001739</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>中融融安二号灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1.74</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>77.66</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.41</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0767</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>004549</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>富安达消费主题灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.31</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>90.85</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.46</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0138</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -2471,36 +5456,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009984</t>
+          <t>005535</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>鹏华启航两年封闭运作混合</t>
+          <t>泰信竞争优选灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>16.86</t>
+          <t>4.94</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.41</t>
+          <t>91.32</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.86</t>
+          <t>7.01</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.8194</t>
+          <t>0.3463</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -2509,36 +5494,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009023</t>
+          <t>290006</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>鹏华稳健回报混合</t>
+          <t>泰信蓝筹精选混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.48</t>
+          <t>3.04</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>95.91</t>
+          <t>93.60</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.36</t>
+          <t>7.00</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1517</t>
+          <t>0.2128</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -2547,36 +5532,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>160613</t>
+          <t>010746</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>鹏华盛世创新混合(LOF)</t>
+          <t>富安达长三角区域主题混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4.01</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>92.43</t>
+          <t>90.83</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.52</t>
+          <t>5.96</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1412</t>
+          <t>0.0864</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -2585,36 +5570,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>010746</t>
+          <t>001739</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>富安达长三角区域主题混合</t>
+          <t>中融融安二号灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.86</t>
+          <t>1.74</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.51</t>
+          <t>77.66</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.09</t>
+          <t>4.41</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0947</t>
+          <t>0.0767</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -2623,36 +5608,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>009188</t>
+          <t>004549</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>鹏华股息精选混合</t>
+          <t>富安达消费主题灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.84</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>97.15</t>
+          <t>90.85</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.19</t>
+          <t>4.46</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0352</t>
+          <t>0.0138</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -2661,6 +5646,252 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009984</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华启航两年封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>16.86</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8194</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009023</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华稳健回报混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>95.91</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1517</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>160613</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华盛世创新混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1412</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010746</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富安达长三角区域主题混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0947</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009188</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华股息精选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>97.15</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0352</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3436,590 +6667,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>009984</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>鹏华启航两年封闭运作混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>16.54</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>78.21</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>6.65</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.0999</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>009023</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>鹏华稳健回报混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>6.96</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.69</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>8.03</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.5589</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>160613</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>鹏华盛世创新混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>4.18</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.34</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>6.15</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.2571</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>008134</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>鹏华优选价值股票</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>3.01</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>95.39</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>7.01</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.2110</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>009188</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>鹏华股息精选混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>2.23</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>95.63</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>7.54</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.1681</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>007385</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>华泰保兴安盈三个月定期开放混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>5.30</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>27.22</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1.52</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0806</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>009124</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>华泰保兴科荣混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>5.27</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>26.90</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>1.45</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0764</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>005522</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>华泰保兴吉年福定期开放灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>2.77</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>47.97</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>1.84</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0510</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>501032</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>财通福盛多策略混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>1.32</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>91.07</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>3.09</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0408</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>008082</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>国寿安保研究精选混合A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.40</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>91.26</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>4.80</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0192</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>004194</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>招商中证1000指数增强A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.81</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>94.63</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>0.92</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0075</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>004195</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>招商中证1000指数增强C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.54</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>94.63</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>0.92</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0050</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>008083</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>国寿安保研究精选混合C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>91.26</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>4.80</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0029</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>009125</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>华泰保兴科荣混合C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>26.90</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>1.45</t>
-        </is>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>